--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H2">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I2">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J2">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N2">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q2">
-        <v>416.7005934711206</v>
+        <v>1247.394525446886</v>
       </c>
       <c r="R2">
-        <v>3750.305341240086</v>
+        <v>11226.55072902198</v>
       </c>
       <c r="S2">
-        <v>0.3374001040236168</v>
+        <v>0.5208724467909336</v>
       </c>
       <c r="T2">
-        <v>0.3374001040236168</v>
+        <v>0.5208724467909336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H3">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I3">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J3">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.296359</v>
       </c>
       <c r="O3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q3">
-        <v>1.410059190932667</v>
+        <v>2.927848119403555</v>
       </c>
       <c r="R3">
-        <v>12.690532718394</v>
+        <v>26.350633074632</v>
       </c>
       <c r="S3">
-        <v>0.001141716918944371</v>
+        <v>0.001222576644898783</v>
       </c>
       <c r="T3">
-        <v>0.001141716918944371</v>
+        <v>0.001222576644898783</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H4">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I4">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J4">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N4">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q4">
-        <v>2.451211562692</v>
+        <v>9.268280708616</v>
       </c>
       <c r="R4">
-        <v>22.060904064228</v>
+        <v>83.41452637754401</v>
       </c>
       <c r="S4">
-        <v>0.001984732081485482</v>
+        <v>0.003870140482228356</v>
       </c>
       <c r="T4">
-        <v>0.001984732081485482</v>
+        <v>0.003870140482228356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H5">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I5">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J5">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N5">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q5">
-        <v>15.5750444621</v>
+        <v>11.51977316691822</v>
       </c>
       <c r="R5">
-        <v>140.1754001589</v>
+        <v>103.677958502264</v>
       </c>
       <c r="S5">
-        <v>0.01261102504777017</v>
+        <v>0.004810292424347127</v>
       </c>
       <c r="T5">
-        <v>0.01261102504777017</v>
+        <v>0.004810292424347126</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>13.101932</v>
       </c>
       <c r="I6">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J6">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N6">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O6">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P6">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q6">
-        <v>557.7054571274857</v>
+        <v>804.0321379883871</v>
       </c>
       <c r="R6">
-        <v>5019.349114147371</v>
+        <v>7236.289241895484</v>
       </c>
       <c r="S6">
-        <v>0.4515709413367887</v>
+        <v>0.3357383558040868</v>
       </c>
       <c r="T6">
-        <v>0.4515709413367887</v>
+        <v>0.3357383558040868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>13.101932</v>
       </c>
       <c r="I7">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J7">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.296359</v>
       </c>
       <c r="O7">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P7">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q7">
         <v>1.887200829509778</v>
@@ -883,10 +883,10 @@
         <v>16.984807465588</v>
       </c>
       <c r="S7">
-        <v>0.001528055793935854</v>
+        <v>0.0007880352956499271</v>
       </c>
       <c r="T7">
-        <v>0.001528055793935854</v>
+        <v>0.0007880352956499269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>13.101932</v>
       </c>
       <c r="I8">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J8">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N8">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O8">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P8">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q8">
-        <v>3.280662630450667</v>
+        <v>5.974048628244</v>
       </c>
       <c r="R8">
-        <v>29.525963674056</v>
+        <v>53.766437654196</v>
       </c>
       <c r="S8">
-        <v>0.00265633390046314</v>
+        <v>0.002494573499211632</v>
       </c>
       <c r="T8">
-        <v>0.00265633390046314</v>
+        <v>0.002494573499211632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>13.101932</v>
       </c>
       <c r="I9">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J9">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N9">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O9">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P9">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q9">
-        <v>20.84539217753333</v>
+        <v>7.425291405075111</v>
       </c>
       <c r="R9">
-        <v>187.6085295978</v>
+        <v>66.827622645676</v>
       </c>
       <c r="S9">
-        <v>0.01687839566180093</v>
+        <v>0.003100566519571314</v>
       </c>
       <c r="T9">
-        <v>0.01687839566180093</v>
+        <v>0.003100566519571313</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.609937666666666</v>
+        <v>1.622518</v>
       </c>
       <c r="H10">
-        <v>4.829813</v>
+        <v>4.867554</v>
       </c>
       <c r="I10">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J10">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N10">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O10">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P10">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q10">
-        <v>205.5889976383081</v>
+        <v>298.7093696863887</v>
       </c>
       <c r="R10">
-        <v>1850.300978744773</v>
+        <v>2688.384327177498</v>
       </c>
       <c r="S10">
-        <v>0.1664642438146267</v>
+        <v>0.1247315721641363</v>
       </c>
       <c r="T10">
-        <v>0.1664642438146267</v>
+        <v>0.1247315721641363</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.609937666666666</v>
+        <v>1.622518</v>
       </c>
       <c r="H11">
-        <v>4.829813</v>
+        <v>4.867554</v>
       </c>
       <c r="I11">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J11">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.296359</v>
       </c>
       <c r="O11">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P11">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q11">
-        <v>0.6956857278741111</v>
+        <v>0.7011219373206667</v>
       </c>
       <c r="R11">
-        <v>6.261171550867</v>
+        <v>6.310097435886</v>
       </c>
       <c r="S11">
-        <v>0.0005632927829480957</v>
+        <v>0.0002927663153405151</v>
       </c>
       <c r="T11">
-        <v>0.0005632927829480957</v>
+        <v>0.000292766315340515</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.609937666666666</v>
+        <v>1.622518</v>
       </c>
       <c r="H12">
-        <v>4.829813</v>
+        <v>4.867554</v>
       </c>
       <c r="I12">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J12">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N12">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O12">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P12">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q12">
-        <v>1.209362636072667</v>
+        <v>2.219443994718</v>
       </c>
       <c r="R12">
-        <v>10.884263724654</v>
+        <v>19.974995952462</v>
       </c>
       <c r="S12">
-        <v>0.0009792140582623678</v>
+        <v>0.000926769518753538</v>
       </c>
       <c r="T12">
-        <v>0.0009792140582623678</v>
+        <v>0.000926769518753538</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.609937666666666</v>
+        <v>1.622518</v>
       </c>
       <c r="H13">
-        <v>4.829813</v>
+        <v>4.867554</v>
       </c>
       <c r="I13">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J13">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N13">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O13">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P13">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q13">
-        <v>7.684312979883333</v>
+        <v>2.758601317724667</v>
       </c>
       <c r="R13">
-        <v>69.15881681895</v>
+        <v>24.827411859522</v>
       </c>
       <c r="S13">
-        <v>0.006221944579357436</v>
+        <v>0.001151904540842177</v>
       </c>
       <c r="T13">
-        <v>0.006221944579357436</v>
+        <v>0.001151904540842177</v>
       </c>
     </row>
   </sheetData>
